--- a/data_analyzed/Distance (miles)/Distance (miles)_games_2q.xlsx
+++ b/data_analyzed/Distance (miles)/Distance (miles)_games_2q.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,114 +441,234 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Daud</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DeLeo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Diedrichsen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Forman</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Hartsch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>LaCroix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Larripa</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Ricci</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Smyth</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44801</v>
       </c>
       <c r="B2" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="C2" t="n">
         <v>1.1197</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.034</v>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>1.2225</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1.2027</v>
+      </c>
       <c r="J2" t="n">
+        <v>0.7929</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.2225</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>0.3179</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>1.1208</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.0944</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>0.0397</v>
       </c>
-      <c r="K2" t="n">
+      <c r="U2" t="n">
+        <v>0.7565</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.0249</v>
       </c>
-      <c r="L2" t="n">
+      <c r="W2" t="n">
+        <v>0.3006</v>
+      </c>
+      <c r="X2" t="n">
         <v>1.2064</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="Y2" t="n">
+        <v>0.0533</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>0.7357</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>1.0806</v>
+      </c>
+      <c r="AE2" t="n">
         <v>0.2395</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.491</v>
       </c>
     </row>
     <row r="3">
@@ -556,35 +676,75 @@
         <v>44804</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9539</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.1933</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.0526</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0535</v>
-      </c>
+      <c r="E3" t="n">
+        <v>0.4056</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1.4196</v>
+      </c>
       <c r="J3" t="n">
-        <v>0.6459</v>
+        <v>0.8279</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0496</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.1617</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>0.87</v>
-      </c>
+        <v>0.0535</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0.9494</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
+        <v>0.0795</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.2117</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>0.6459</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0496</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.3477</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.1617</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>1.4162</v>
+      </c>
+      <c r="AE3" t="n">
         <v>0.359</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.6309</v>
       </c>
     </row>
     <row r="4">
@@ -592,35 +752,77 @@
         <v>44808</v>
       </c>
       <c r="B4" t="n">
+        <v>0.5987</v>
+      </c>
+      <c r="C4" t="n">
         <v>1.0923</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.0237</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.0646</v>
-      </c>
+      <c r="E4" t="n">
+        <v>0.3043</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1.3222</v>
+      </c>
       <c r="J4" t="n">
+        <v>0.8314</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0646</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0.8683999999999999</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.1709</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.0397</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
         <v>0.7121</v>
       </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
+        <v>0.6797</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.0199</v>
       </c>
-      <c r="L4" t="n">
+      <c r="W4" t="n">
+        <v>0.4439</v>
+      </c>
+      <c r="X4" t="n">
         <v>0.9675</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="Y4" t="n">
+        <v>0.3094</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
         <v>0.9504</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>1.1322</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0.4599</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.5145999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -628,313 +830,683 @@
         <v>44813</v>
       </c>
       <c r="B5" t="n">
+        <v>0.0597</v>
+      </c>
+      <c r="C5" t="n">
         <v>1.3458</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.0769</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>0.6992</v>
-      </c>
+      <c r="E5" t="n">
+        <v>0.3558</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1.3436</v>
+      </c>
       <c r="J5" t="n">
+        <v>0.9692</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6992</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>1.2376</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1077</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.1657</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>0.3307</v>
       </c>
-      <c r="K5" t="n">
+      <c r="U5" t="n">
+        <v>1.0424</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.0253</v>
       </c>
-      <c r="L5" t="n">
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
         <v>1.1976</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="Y5" t="n">
+        <v>0.07290000000000001</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
         <v>0.7411</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="AE5" t="n">
         <v>0.4209</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44815</v>
       </c>
       <c r="B6" t="n">
+        <v>0.5069</v>
+      </c>
+      <c r="C6" t="n">
         <v>1.2302</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.0463</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.0412</v>
-      </c>
+      <c r="E6" t="n">
+        <v>0.3132</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1.0159</v>
+      </c>
       <c r="J6" t="n">
+        <v>0.9217</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0412</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>0.5678</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>1.1806</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1005</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9635</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>1.4628</v>
       </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.1134</v>
       </c>
-      <c r="L6" t="n">
+      <c r="W6" t="n">
+        <v>0.5164</v>
+      </c>
+      <c r="X6" t="n">
         <v>1.1075</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="Y6" t="n">
+        <v>0.0717</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
         <v>0.0664</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.2236</v>
+      </c>
+      <c r="AE6" t="n">
         <v>1.1861</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44820</v>
       </c>
       <c r="B7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.9675</v>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>0.0137</v>
-      </c>
+      <c r="E7" t="n">
+        <v>0.3569</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1.2211</v>
+      </c>
       <c r="J7" t="n">
+        <v>0.8563</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0137</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0998</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>1.1984</v>
       </c>
-      <c r="K7" t="n">
+      <c r="U7" t="n">
+        <v>0.6437</v>
+      </c>
+      <c r="V7" t="n">
         <v>0.7768</v>
       </c>
-      <c r="L7" t="n">
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
         <v>0.8508</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="Y7" t="n">
+        <v>0.0418</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
         <v>1.1303</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>0.0354</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.3077</v>
+      </c>
+      <c r="AE7" t="n">
         <v>0.9375</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44822</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.1731</v>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.1081</v>
-      </c>
+      <c r="E8" t="n">
+        <v>0.3977</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.7781</v>
+      </c>
       <c r="J8" t="n">
+        <v>0.3695</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1081</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>0.7823</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1476</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.1922</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>1.4986</v>
       </c>
-      <c r="K8" t="n">
+      <c r="U8" t="n">
+        <v>0.7893</v>
+      </c>
+      <c r="V8" t="n">
         <v>0.7526</v>
       </c>
-      <c r="L8" t="n">
+      <c r="W8" t="n">
+        <v>0.7863</v>
+      </c>
+      <c r="X8" t="n">
         <v>1.0793</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="Y8" t="n">
+        <v>0.08890000000000001</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
         <v>1.1322</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>0.1471</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.3381</v>
+      </c>
+      <c r="AE8" t="n">
         <v>0.7948</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>44827</v>
       </c>
       <c r="B9" t="n">
+        <v>0.9879</v>
+      </c>
+      <c r="C9" t="n">
         <v>1.1563</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.0659</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>1.2254</v>
+      </c>
       <c r="J9" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0659</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>0.0614</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0575</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.9209000000000001</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>1.3351</v>
       </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
+        <v>0.7629</v>
+      </c>
+      <c r="V9" t="n">
         <v>0.2983</v>
       </c>
-      <c r="L9" t="n">
+      <c r="W9" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.0238</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="Y9" t="n">
+        <v>0.0481</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
         <v>1.1002</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>0.07439999999999999</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.1495</v>
+      </c>
+      <c r="AE9" t="n">
         <v>1.0996</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>44829</v>
       </c>
       <c r="B10" t="n">
+        <v>0.3923</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.1376</v>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>0.07480000000000001</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>0.8821</v>
+      </c>
       <c r="J10" t="n">
+        <v>0.8833</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.07480000000000001</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1.0339</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.2165</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>1.522</v>
       </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
+        <v>0.6222</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.1895</v>
       </c>
-      <c r="L10" t="n">
+      <c r="W10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X10" t="n">
         <v>1.1552</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="Y10" t="n">
+        <v>0.0765</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
         <v>1.2289</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>0.1599</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.9576</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44834</v>
       </c>
       <c r="B11" t="n">
+        <v>0.08160000000000001</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.3035</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.0965</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>0.08790000000000001</v>
-      </c>
+      <c r="E11" t="n">
+        <v>0.3199</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>0.4918</v>
+      </c>
       <c r="J11" t="n">
+        <v>0.4888</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>0.06850000000000001</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>1.3335</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.1456</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>1.4522</v>
       </c>
-      <c r="K11" t="n">
+      <c r="U11" t="n">
+        <v>0.7413</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.5406</v>
       </c>
-      <c r="L11" t="n">
+      <c r="W11" t="n">
+        <v>1.0065</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.1789</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="Y11" t="n">
+        <v>0.0896</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
         <v>1.1857</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>0.08450000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.1787</v>
+      </c>
+      <c r="AE11" t="n">
         <v>1.1969</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>44836</v>
       </c>
       <c r="B12" t="n">
+        <v>1.3963</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.1457</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.1662</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0922</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.3284</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>1.4213</v>
+      </c>
       <c r="J12" t="n">
+        <v>0.2801</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0922</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>0.4678</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.1629</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
         <v>1.1121</v>
       </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
+        <v>0.6902</v>
+      </c>
+      <c r="V12" t="n">
         <v>0.5436</v>
       </c>
-      <c r="L12" t="n">
+      <c r="W12" t="n">
+        <v>0.0793</v>
+      </c>
+      <c r="X12" t="n">
         <v>1.0335</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="Y12" t="n">
+        <v>0.6045</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
         <v>1.1176</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.3216</v>
+      </c>
+      <c r="AE12" t="n">
         <v>0.5972</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>44841</v>
       </c>
       <c r="B13" t="n">
+        <v>1.1781</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0671</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.0736</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.08939999999999999</v>
-      </c>
+      <c r="E13" t="n">
+        <v>0.2904</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.9069</v>
+      </c>
       <c r="J13" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.08939999999999999</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>1.0653</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0419</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>1.3013</v>
       </c>
-      <c r="K13" t="n">
+      <c r="U13" t="n">
+        <v>0.5127</v>
+      </c>
+      <c r="V13" t="n">
         <v>0.6092</v>
       </c>
-      <c r="L13" t="n">
+      <c r="W13" t="n">
+        <v>0.4824</v>
+      </c>
+      <c r="X13" t="n">
         <v>0.9644</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="Y13" t="n">
+        <v>0.0649</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
         <v>0.8474</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>0.0887</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.0016</v>
+      </c>
+      <c r="AE13" t="n">
         <v>0.3396</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.2199</v>
       </c>
     </row>
     <row r="14">
@@ -942,35 +1514,79 @@
         <v>44843</v>
       </c>
       <c r="B14" t="n">
+        <v>1.4802</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.3961</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.1287</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>0.1286</v>
-      </c>
+      <c r="E14" t="n">
+        <v>0.3976</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0.3498</v>
+      </c>
       <c r="J14" t="n">
+        <v>0.6139</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1286</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>0.2944</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>1.5267</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.2469</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
         <v>1.6266</v>
       </c>
-      <c r="K14" t="n">
+      <c r="U14" t="n">
+        <v>0.8943</v>
+      </c>
+      <c r="V14" t="n">
         <v>0.1065</v>
       </c>
-      <c r="L14" t="n">
+      <c r="W14" t="n">
+        <v>1.2836</v>
+      </c>
+      <c r="X14" t="n">
         <v>1.1995</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="Y14" t="n">
+        <v>0.1565</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
         <v>1.2743</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>0.1721</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1.3807</v>
+      </c>
+      <c r="AE14" t="n">
         <v>0.547</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.08110000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -978,71 +1594,157 @@
         <v>44848</v>
       </c>
       <c r="B15" t="n">
+        <v>1.1824</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.2628</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.07439999999999999</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>0.407</v>
-      </c>
+      <c r="E15" t="n">
+        <v>0.3078</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0.8697</v>
+      </c>
       <c r="J15" t="n">
+        <v>0.6661</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>0.4023</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>0.7741</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
         <v>1.5157</v>
       </c>
-      <c r="K15" t="n">
+      <c r="U15" t="n">
+        <v>0.7642</v>
+      </c>
+      <c r="V15" t="n">
         <v>0.785</v>
       </c>
-      <c r="L15" t="n">
+      <c r="W15" t="n">
+        <v>0.7193000000000001</v>
+      </c>
+      <c r="X15" t="n">
         <v>1.0064</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="Y15" t="n">
+        <v>0.0626</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
         <v>1.1619</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>0.0919</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.9716</v>
+      </c>
+      <c r="AE15" t="n">
         <v>0.422</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.0181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>44850</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>1.1752</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.1221</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>0.0921</v>
-      </c>
+      <c r="E16" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0.0598</v>
+      </c>
       <c r="J16" t="n">
+        <v>0.8247</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0921</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>0.3706</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>0.8129</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.1123</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
         <v>1.5366</v>
       </c>
-      <c r="K16" t="n">
+      <c r="U16" t="n">
+        <v>0.6279</v>
+      </c>
+      <c r="V16" t="n">
         <v>0.7461</v>
       </c>
-      <c r="L16" t="n">
+      <c r="W16" t="n">
+        <v>1.4213</v>
+      </c>
+      <c r="X16" t="n">
         <v>1.0032</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="Y16" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
         <v>1.1041</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>0.1246</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1.3494</v>
+      </c>
+      <c r="AE16" t="n">
         <v>0.9188</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.0519</v>
       </c>
     </row>
     <row r="17">
@@ -1050,35 +1752,79 @@
         <v>44855</v>
       </c>
       <c r="B17" t="n">
+        <v>1.2797</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.1299</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.0605</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>0.0833</v>
-      </c>
+      <c r="E17" t="n">
+        <v>0.2258</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0.0432</v>
+      </c>
       <c r="J17" t="n">
+        <v>0.8998</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>0.7605</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0731</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.9287</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
         <v>1.3314</v>
       </c>
-      <c r="K17" t="n">
+      <c r="U17" t="n">
+        <v>0.5268</v>
+      </c>
+      <c r="V17" t="n">
         <v>0.0461</v>
       </c>
-      <c r="L17" t="n">
+      <c r="W17" t="n">
+        <v>1.2325</v>
+      </c>
+      <c r="X17" t="n">
         <v>0.9833</v>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="Y17" t="n">
+        <v>0.0543</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
         <v>1.0182</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>0.0711</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.208</v>
+      </c>
+      <c r="AE17" t="n">
         <v>0.8971</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.0512</v>
       </c>
     </row>
     <row r="18">
@@ -1086,35 +1832,77 @@
         <v>44862</v>
       </c>
       <c r="B18" t="n">
+        <v>1.2101</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.2503</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.1235</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>0.4841</v>
-      </c>
+      <c r="E18" t="n">
+        <v>0.4155</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>1.088</v>
+      </c>
       <c r="J18" t="n">
+        <v>0.0693</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.4841</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>0.0453</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>1.2104</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0882</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.1004</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
         <v>1.4612</v>
       </c>
-      <c r="K18" t="n">
+      <c r="U18" t="n">
+        <v>0.5538999999999999</v>
+      </c>
+      <c r="V18" t="n">
         <v>0.0621</v>
       </c>
-      <c r="L18" t="n">
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
         <v>1.1495</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="Y18" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
         <v>1.1678</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>0.0939</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1.4813</v>
+      </c>
+      <c r="AE18" t="n">
         <v>0.6687</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.0392</v>
       </c>
     </row>
     <row r="19">
@@ -1122,1012 +1910,1698 @@
         <v>44864</v>
       </c>
       <c r="B19" t="n">
+        <v>1.2297</v>
+      </c>
+      <c r="C19" t="n">
         <v>1.1709</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.1089</v>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.1066</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.5357</v>
+      </c>
       <c r="J19" t="n">
+        <v>0.0604</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1066</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>0.0504</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>1.2481</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.0726</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.9996</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
         <v>1.2476</v>
       </c>
-      <c r="K19" t="n">
+      <c r="U19" t="n">
+        <v>0.8486</v>
+      </c>
+      <c r="V19" t="n">
         <v>0.0475</v>
       </c>
-      <c r="L19" t="n">
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
         <v>0.997</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="Y19" t="n">
+        <v>0.0597</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
         <v>1.0454</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>0.2322</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.1594</v>
+      </c>
+      <c r="AE19" t="n">
         <v>0.7416</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.0409</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>45010</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
         <v>1.03</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0.7707000000000001</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>1.2097</v>
-      </c>
+      <c r="E20" t="n">
+        <v>0.0921</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1.1998</v>
+      </c>
       <c r="J20" t="n">
+        <v>1.1103</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.2097</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>0.9510999999999999</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
         <v>1.2473</v>
       </c>
-      <c r="K20" t="n">
+      <c r="U20" t="n">
+        <v>0.9175</v>
+      </c>
+      <c r="V20" t="n">
         <v>0.6726</v>
       </c>
-      <c r="L20" t="n">
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
         <v>0.9739</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>0.2595</v>
+      </c>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="n">
         <v>0.8212</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>45035</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>1.0035</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>1.0299</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>1.0686</v>
-      </c>
+      <c r="E21" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>1.16</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
+        <v>1.0686</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="n">
         <v>0.0004</v>
       </c>
-      <c r="L21" t="n">
+      <c r="W21" t="n">
+        <v>0.8517</v>
+      </c>
+      <c r="X21" t="n">
         <v>0.9376</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
         <v>0</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
         <v>0</v>
       </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>45156</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>1.1504</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>0.465</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.9488</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.3263</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>0.7044</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.4127</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1.1624</v>
       </c>
-      <c r="I22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>0.5061</v>
+      </c>
+      <c r="R22" t="n">
         <v>0.9189000000000001</v>
       </c>
-      <c r="J22" t="n">
+      <c r="S22" t="n">
+        <v>1.1767</v>
+      </c>
+      <c r="T22" t="n">
         <v>0.7815</v>
       </c>
-      <c r="K22" t="n">
+      <c r="U22" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="V22" t="n">
         <v>0.622</v>
       </c>
-      <c r="L22" t="n">
+      <c r="W22" t="n">
+        <v>0.8697</v>
+      </c>
+      <c r="X22" t="n">
         <v>1.1389</v>
       </c>
-      <c r="M22" t="n">
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
         <v>0.6536</v>
       </c>
-      <c r="N22" t="n">
+      <c r="AA22" t="n">
         <v>0.0591</v>
       </c>
-      <c r="O22" t="n">
+      <c r="AB22" t="n">
         <v>0.6666</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="n">
         <v>0.523</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>45159</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>0.9404</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>0.0721</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.0563</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>0.0808</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>0.6711</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.7724</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.8001</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>0.5445</v>
       </c>
-      <c r="I23" t="n">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>0.3853</v>
+      </c>
+      <c r="R23" t="n">
         <v>0.08409999999999999</v>
       </c>
-      <c r="J23" t="n">
+      <c r="S23" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="T23" t="n">
         <v>0.98</v>
       </c>
-      <c r="K23" t="n">
+      <c r="U23" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="V23" t="n">
         <v>0.4236</v>
       </c>
-      <c r="L23" t="n">
+      <c r="W23" t="n">
+        <v>1.0022</v>
+      </c>
+      <c r="X23" t="n">
         <v>0.9948</v>
       </c>
-      <c r="M23" t="n">
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
         <v>0.9403</v>
       </c>
-      <c r="N23" t="n">
+      <c r="AA23" t="n">
         <v>0.4942</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="n">
         <v>0.6979</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>45163</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
         <v>1.0933</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>0.07480000000000001</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>1.1917</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.0877</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>0.1339</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
+        <v>1.0895</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.6536999999999999</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.1045</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1.1024</v>
       </c>
-      <c r="I24" t="n">
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>0.9348</v>
+      </c>
+      <c r="R24" t="n">
         <v>0.1408</v>
       </c>
-      <c r="J24" t="n">
+      <c r="S24" t="n">
+        <v>1.413</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.1022</v>
       </c>
-      <c r="K24" t="n">
+      <c r="U24" t="n">
+        <v>0.4608</v>
+      </c>
+      <c r="V24" t="n">
         <v>0.5828</v>
       </c>
-      <c r="L24" t="n">
+      <c r="W24" t="n">
+        <v>0.5006</v>
+      </c>
+      <c r="X24" t="n">
         <v>0.9083</v>
       </c>
-      <c r="M24" t="n">
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
         <v>0.7504999999999999</v>
       </c>
-      <c r="N24" t="n">
+      <c r="AA24" t="n">
         <v>1.1772</v>
       </c>
-      <c r="O24" t="n">
+      <c r="AB24" t="n">
         <v>0.8688</v>
       </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>45165</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>1.1129</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1.0698</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.6092</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>0.0969</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
+        <v>0.0561</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.6879</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1.1151</v>
       </c>
-      <c r="I25" t="n">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="R25" t="n">
         <v>0.3994</v>
       </c>
-      <c r="J25" t="n">
+      <c r="S25" t="n">
+        <v>1.3715</v>
+      </c>
+      <c r="T25" t="n">
         <v>0.9363</v>
       </c>
-      <c r="K25" t="n">
+      <c r="U25" t="n">
+        <v>0.8321</v>
+      </c>
+      <c r="V25" t="n">
         <v>0.4979</v>
       </c>
-      <c r="L25" t="n">
+      <c r="W25" t="n">
+        <v>0.8993</v>
+      </c>
+      <c r="X25" t="n">
         <v>1.1513</v>
       </c>
-      <c r="M25" t="n">
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
         <v>0.9953</v>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="n">
         <v>0.5506</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="n">
         <v>0.061</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>45170</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
         <v>1.1745</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>0.0305</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>1.1786</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.0317</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>0.0815</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
+        <v>0.7652</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8327</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.0466</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1.3201</v>
       </c>
-      <c r="I26" t="n">
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="R26" t="n">
         <v>0.1063</v>
       </c>
-      <c r="J26" t="n">
+      <c r="S26" t="n">
+        <v>1.5463</v>
+      </c>
+      <c r="T26" t="n">
         <v>0.7895</v>
       </c>
-      <c r="K26" t="n">
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="n">
         <v>0.822</v>
       </c>
-      <c r="L26" t="n">
+      <c r="W26" t="n">
+        <v>0.5711000000000001</v>
+      </c>
+      <c r="X26" t="n">
         <v>1.337</v>
       </c>
-      <c r="M26" t="n">
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
         <v>1.3238</v>
       </c>
-      <c r="N26" t="n">
+      <c r="AA26" t="n">
         <v>0.9681999999999999</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AB26" t="n">
         <v>0.71</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="n">
         <v>0.0286</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>45172</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
         <v>1.0331</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>0.7658</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0.7667</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.027</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>0.0505</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
+        <v>0.7066</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.6447000000000001</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.0203</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>0.9693000000000001</v>
       </c>
-      <c r="I27" t="n">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="R27" t="n">
         <v>0.0795</v>
       </c>
-      <c r="J27" t="n">
+      <c r="S27" t="n">
+        <v>1.2662</v>
+      </c>
+      <c r="T27" t="n">
         <v>1.1908</v>
       </c>
-      <c r="K27" t="n">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="n">
         <v>0.6815</v>
       </c>
-      <c r="L27" t="n">
+      <c r="W27" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="X27" t="n">
         <v>1.1123</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
         <v>0.6304999999999999</v>
       </c>
-      <c r="N27" t="n">
+      <c r="AA27" t="n">
         <v>0.837</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AB27" t="n">
         <v>0.7854</v>
       </c>
-      <c r="P27" t="n">
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="n">
         <v>0.0576</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>45177</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
         <v>1.1436</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0.9002</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.0421</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>0.0519</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
+        <v>0.7365</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.6567</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.0354</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>0.7868000000000001</v>
       </c>
-      <c r="I28" t="n">
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>0.6503</v>
+      </c>
+      <c r="R28" t="n">
         <v>0.09619999999999999</v>
       </c>
-      <c r="J28" t="n">
+      <c r="S28" t="n">
+        <v>1.4745</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.1081</v>
       </c>
-      <c r="K28" t="n">
+      <c r="U28" t="n">
+        <v>0.0422</v>
+      </c>
+      <c r="V28" t="n">
         <v>0.039</v>
       </c>
-      <c r="L28" t="n">
+      <c r="W28" t="n">
+        <v>0.4769</v>
+      </c>
+      <c r="X28" t="n">
         <v>0.806</v>
       </c>
-      <c r="M28" t="n">
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
         <v>1.2604</v>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="n">
         <v>1.2966</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="n">
         <v>0.7292999999999999</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>45179</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
         <v>1.3115</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>0.0793</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1.0672</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.099</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>0.09320000000000001</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>0.4654</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.011</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.06900000000000001</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>0.8313</v>
       </c>
-      <c r="I29" t="n">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="n">
         <v>0.1197</v>
       </c>
-      <c r="J29" t="n">
+      <c r="S29" t="n">
+        <v>1.4303</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.4207</v>
       </c>
-      <c r="K29" t="n">
+      <c r="U29" t="n">
+        <v>0.4338</v>
+      </c>
+      <c r="V29" t="n">
         <v>0.06619999999999999</v>
       </c>
-      <c r="L29" t="n">
+      <c r="W29" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="X29" t="n">
         <v>1.0744</v>
       </c>
-      <c r="M29" t="n">
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
         <v>1.1443</v>
       </c>
-      <c r="N29" t="n">
+      <c r="AA29" t="n">
         <v>0.8665</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AB29" t="n">
         <v>1.0518</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
         <v>0.4212</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>45184</v>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
         <v>0.0476</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>1.0418</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.0386</v>
       </c>
-      <c r="E30" t="n">
+      <c r="H30" t="n">
         <v>0.0761</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
+        <v>0.4581</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.035</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1.0305</v>
       </c>
-      <c r="I30" t="n">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
         <v>0.09710000000000001</v>
       </c>
-      <c r="J30" t="n">
+      <c r="S30" t="n">
+        <v>1.3392</v>
+      </c>
+      <c r="T30" t="n">
         <v>1.2287</v>
       </c>
-      <c r="K30" t="n">
+      <c r="U30" t="n">
+        <v>0.0435</v>
+      </c>
+      <c r="V30" t="n">
         <v>0.0347</v>
       </c>
-      <c r="L30" t="n">
+      <c r="W30" t="n">
+        <v>0.3028</v>
+      </c>
+      <c r="X30" t="n">
         <v>1.0844</v>
       </c>
-      <c r="M30" t="n">
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
         <v>1.1586</v>
       </c>
-      <c r="N30" t="n">
+      <c r="AA30" t="n">
         <v>1.2228</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="n">
         <v>0.3429</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>45186</v>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
         <v>0.0926</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.0697</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
         <v>0.1107</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
+        <v>0.5006</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.6347</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1.1938</v>
       </c>
-      <c r="I31" t="n">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
         <v>0.1442</v>
       </c>
-      <c r="J31" t="n">
+      <c r="S31" t="n">
+        <v>1.514</v>
+      </c>
+      <c r="T31" t="n">
         <v>1.4583</v>
       </c>
-      <c r="K31" t="n">
+      <c r="U31" t="n">
+        <v>0.3817</v>
+      </c>
+      <c r="V31" t="n">
         <v>0.5591</v>
       </c>
-      <c r="L31" t="n">
+      <c r="W31" t="n">
+        <v>0.6364</v>
+      </c>
+      <c r="X31" t="n">
         <v>1.2339</v>
       </c>
-      <c r="M31" t="n">
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
         <v>0</v>
       </c>
-      <c r="N31" t="n">
+      <c r="AA31" t="n">
         <v>1.4122</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="n">
         <v>0.4784</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>45191</v>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
         <v>0.06279999999999999</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1.2365</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.074</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>0.0861</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.7691</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1.173</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>1.0732</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>1.5194</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.4196</v>
       </c>
-      <c r="K32" t="n">
+      <c r="U32" t="n">
+        <v>0.5465</v>
+      </c>
+      <c r="V32" t="n">
         <v>0.7409</v>
       </c>
-      <c r="L32" t="n">
+      <c r="W32" t="n">
+        <v>0.7518</v>
+      </c>
+      <c r="X32" t="n">
         <v>1.1901</v>
       </c>
-      <c r="M32" t="n">
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="n">
+      <c r="AA32" t="n">
         <v>0.9332</v>
       </c>
-      <c r="O32" t="n">
+      <c r="AB32" t="n">
         <v>0.9008</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="n">
         <v>0.346</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>45198</v>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
         <v>0.0289</v>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>1.2146</v>
+      </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>0.6476</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1.1112</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>1.0309</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>1.3776</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.3549</v>
       </c>
-      <c r="K33" t="n">
+      <c r="U33" t="n">
+        <v>0.4426</v>
+      </c>
+      <c r="V33" t="n">
         <v>0.1507</v>
       </c>
-      <c r="L33" t="n">
+      <c r="W33" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="X33" t="n">
         <v>1.0501</v>
       </c>
-      <c r="M33" t="n">
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
         <v>1.2649</v>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="n">
         <v>1.0019</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="n">
         <v>0.6667</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>45200</v>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
         <v>0.4578</v>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.9641999999999999</v>
+      </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.6422</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1.0824</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>1.3855</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.2856</v>
       </c>
-      <c r="K34" t="n">
+      <c r="U34" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="V34" t="n">
         <v>0.6486</v>
       </c>
-      <c r="L34" t="n">
+      <c r="W34" t="n">
+        <v>0.4836</v>
+      </c>
+      <c r="X34" t="n">
         <v>1.0479</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
         <v>1.1046</v>
       </c>
-      <c r="N34" t="n">
+      <c r="AA34" t="n">
         <v>0.8416</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AB34" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="P34" t="n">
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="n">
         <v>0.3913</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>45205</v>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
         <v>0.0576</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>1.4765</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.5243</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>0.1019</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8404</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1.23</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>1.4497</v>
+      </c>
+      <c r="T35" t="n">
         <v>1.469</v>
       </c>
-      <c r="K35" t="n">
+      <c r="U35" t="n">
+        <v>0.5029</v>
+      </c>
+      <c r="V35" t="n">
         <v>0.395</v>
       </c>
-      <c r="L35" t="n">
+      <c r="W35" t="n">
+        <v>0.2943</v>
+      </c>
+      <c r="X35" t="n">
         <v>1.2265</v>
       </c>
-      <c r="M35" t="n">
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
         <v>1.4736</v>
       </c>
-      <c r="N35" t="n">
+      <c r="AA35" t="n">
         <v>1.0025</v>
       </c>
-      <c r="O35" t="n">
+      <c r="AB35" t="n">
         <v>0.8828</v>
       </c>
-      <c r="P35" t="n">
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="n">
         <v>0.4126</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>45207</v>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
         <v>0.0699</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>0.08119999999999999</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>1.1187</v>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
+        <v>0.08119999999999999</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0568</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7012</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1.0975</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>1.379</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
         <v>0.9823</v>
       </c>
-      <c r="L36" t="n">
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
         <v>1.2016</v>
       </c>
-      <c r="M36" t="n">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
         <v>1.2806</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AA36" t="n">
         <v>1.03</v>
       </c>
-      <c r="O36" t="n">
+      <c r="AB36" t="n">
         <v>1.0939</v>
       </c>
-      <c r="P36" t="n">
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="n">
         <v>0.5468</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>45212</v>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>0.013</v>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>1.3082</v>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>1.0355</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1.0937</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>1.3506</v>
+      </c>
+      <c r="T37" t="n">
         <v>0.8555</v>
       </c>
-      <c r="K37" t="n">
+      <c r="U37" t="n">
+        <v>0.5153</v>
+      </c>
+      <c r="V37" t="n">
         <v>0.6041</v>
       </c>
-      <c r="L37" t="n">
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
         <v>1.1862</v>
       </c>
-      <c r="M37" t="n">
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
         <v>1.1818</v>
       </c>
-      <c r="N37" t="n">
+      <c r="AA37" t="n">
         <v>0.67</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="n">
         <v>0.3495</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>45219</v>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
         <v>0.07099999999999999</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>1.0716</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.0526</v>
       </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
+        <v>0.5355</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1.0129</v>
       </c>
-      <c r="I38" t="n">
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
+      <c r="S38" t="n">
+        <v>1.3296</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.2222</v>
       </c>
-      <c r="K38" t="n">
+      <c r="U38" t="n">
+        <v>0.0646</v>
+      </c>
+      <c r="V38" t="n">
         <v>0.0489</v>
       </c>
-      <c r="L38" t="n">
+      <c r="W38" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="X38" t="n">
         <v>1.1018</v>
       </c>
-      <c r="M38" t="n">
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
         <v>1.1355</v>
       </c>
-      <c r="N38" t="n">
+      <c r="AA38" t="n">
         <v>1.0177</v>
       </c>
-      <c r="O38" t="n">
+      <c r="AB38" t="n">
         <v>1.0146</v>
       </c>
-      <c r="P38" t="n">
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="n">
         <v>0.9984</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>45221</v>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
         <v>0.0549</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>1.4712</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.0641</v>
       </c>
-      <c r="E39" t="n">
+      <c r="H39" t="n">
         <v>0.0498</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
+        <v>0.2737</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8074</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1.0942</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>1.1166</v>
+      </c>
+      <c r="T39" t="n">
         <v>1.388</v>
       </c>
-      <c r="K39" t="n">
+      <c r="U39" t="n">
+        <v>0.0732</v>
+      </c>
+      <c r="V39" t="n">
         <v>0.4481</v>
       </c>
-      <c r="L39" t="n">
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>1.0767</v>
       </c>
-      <c r="M39" t="n">
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
         <v>1.1963</v>
       </c>
-      <c r="N39" t="n">
+      <c r="AA39" t="n">
         <v>1.0175</v>
       </c>
-      <c r="O39" t="n">
+      <c r="AB39" t="n">
         <v>0.9184</v>
       </c>
-      <c r="P39" t="n">
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="n">
         <v>0.6046</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>45226</v>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
         <v>0.0659</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.0675</v>
       </c>
-      <c r="E40" t="n">
+      <c r="H40" t="n">
         <v>0.0985</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>0.5923</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8971</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1.1876</v>
       </c>
-      <c r="I40" t="n">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
+      <c r="S40" t="n">
+        <v>1.4116</v>
+      </c>
+      <c r="T40" t="n">
         <v>1.4118</v>
       </c>
-      <c r="K40" t="n">
+      <c r="U40" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="V40" t="n">
         <v>0.4239</v>
       </c>
-      <c r="L40" t="n">
+      <c r="W40" t="n">
+        <v>0.1386</v>
+      </c>
+      <c r="X40" t="n">
         <v>1.1764</v>
       </c>
-      <c r="M40" t="n">
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
         <v>1.2081</v>
       </c>
-      <c r="N40" t="n">
+      <c r="AA40" t="n">
         <v>1.2064</v>
       </c>
-      <c r="O40" t="n">
+      <c r="AB40" t="n">
         <v>1.0135</v>
       </c>
-      <c r="P40" t="n">
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="n">
         <v>0.5134</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>45228</v>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
         <v>0.0454</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>1.3182</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.029</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>0.0425</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8599</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1.0305</v>
       </c>
-      <c r="I41" t="n">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
         <v>0.1183</v>
       </c>
-      <c r="J41" t="n">
+      <c r="S41" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="T41" t="n">
         <v>0.8148</v>
       </c>
-      <c r="K41" t="n">
+      <c r="U41" t="n">
+        <v>0.0343</v>
+      </c>
+      <c r="V41" t="n">
         <v>0.7231</v>
       </c>
-      <c r="L41" t="n">
+      <c r="W41" t="n">
+        <v>0.6677999999999999</v>
+      </c>
+      <c r="X41" t="n">
         <v>1.1782</v>
       </c>
-      <c r="M41" t="n">
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
         <v>1.2918</v>
       </c>
-      <c r="N41" t="n">
+      <c r="AA41" t="n">
         <v>0.6151</v>
       </c>
-      <c r="O41" t="n">
+      <c r="AB41" t="n">
         <v>1.2033</v>
       </c>
-      <c r="P41" t="n">
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="n">
         <v>0.6796</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>45232</v>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
         <v>0.0274</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>1.2901</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.0498</v>
       </c>
-      <c r="E42" t="n">
+      <c r="H42" t="n">
         <v>0.0725</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
+        <v>0.5406</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.7643</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>0.9659</v>
       </c>
-      <c r="I42" t="n">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="n">
         <v>0.083</v>
       </c>
-      <c r="J42" t="n">
+      <c r="S42" t="n">
+        <v>1.4282</v>
+      </c>
+      <c r="T42" t="n">
         <v>1.3701</v>
       </c>
-      <c r="K42" t="n">
+      <c r="U42" t="n">
+        <v>0.0439</v>
+      </c>
+      <c r="V42" t="n">
         <v>0.7442</v>
       </c>
-      <c r="L42" t="n">
+      <c r="W42" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="X42" t="n">
         <v>1.1805</v>
       </c>
-      <c r="M42" t="n">
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
         <v>1.1709</v>
       </c>
-      <c r="N42" t="n">
+      <c r="AA42" t="n">
         <v>1.096</v>
       </c>
-      <c r="O42" t="n">
+      <c r="AB42" t="n">
         <v>0.9149</v>
       </c>
-      <c r="P42" t="n">
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="n">
         <v>0.676</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2135,87 +3609,119 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
-        <v>1.2125</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1.2614</v>
-      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
+        <v>1.2125</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.2614</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
         <v>0.9044</v>
       </c>
-      <c r="H43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1.007</v>
       </c>
-      <c r="I43" t="n">
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
         <v>0.8881</v>
       </c>
-      <c r="J43" t="n">
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
         <v>1.2129</v>
       </c>
-      <c r="K43" t="n">
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="n">
         <v>1.1352</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
         <v>1.1427</v>
       </c>
-      <c r="N43" t="n">
+      <c r="AA43" t="n">
         <v>1.1958</v>
       </c>
-      <c r="O43" t="n">
+      <c r="AB43" t="n">
         <v>1.313</v>
       </c>
-      <c r="P43" t="n">
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="n">
         <v>1.0538</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>45396</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
         <v>1.0122</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
         <v>0.6765</v>
       </c>
-      <c r="E44" t="n">
+      <c r="H44" t="n">
         <v>0.6667999999999999</v>
       </c>
-      <c r="F44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
         <v>0.9389</v>
       </c>
-      <c r="G44" t="n">
+      <c r="L44" t="n">
         <v>0.8214</v>
       </c>
-      <c r="H44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>0.9871</v>
       </c>
-      <c r="I44" t="n">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
         <v>0.7793</v>
       </c>
-      <c r="J44" t="n">
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
         <v>1.1262</v>
       </c>
-      <c r="K44" t="n">
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
         <v>1.0364</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
         <v>1.1781</v>
       </c>
-      <c r="N44" t="n">
+      <c r="AA44" t="n">
         <v>0.8962</v>
       </c>
-      <c r="O44" t="n">
+      <c r="AB44" t="n">
         <v>0.9065</v>
       </c>
-      <c r="P44" t="n">
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="n">
         <v>1.0547</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2224,38 +3730,54 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
         <v>1.1035</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="n">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
         <v>0.6639</v>
       </c>
-      <c r="H45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>0.8423</v>
       </c>
-      <c r="I45" t="n">
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="n">
         <v>0.8312</v>
       </c>
-      <c r="J45" t="n">
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="K45" t="n">
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="n">
         <v>0.9019</v>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="n">
         <v>1.1926</v>
       </c>
-      <c r="N45" t="n">
+      <c r="AA45" t="n">
         <v>0.918</v>
       </c>
-      <c r="O45" t="n">
+      <c r="AB45" t="n">
         <v>0.9577</v>
       </c>
-      <c r="P45" t="n">
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="n">
         <v>0.9265</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
